--- a/data/Game/Faction.xlsx
+++ b/data/Game/Faction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F66CACD-A0E4-4E59-88D0-3BFF1F739AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A61AAC7-CACA-4DAD-A5F8-6D6E9D2D8A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faction" sheetId="1" r:id="rId1"/>
@@ -181,22 +181,22 @@
     <t>Alpha 21.6</t>
   </si>
   <si>
+    <t>Nhà</t>
+  </si>
+  <si>
+    <t>Hoang dã</t>
+  </si>
+  <si>
+    <t>Hội chiến binh</t>
+  </si>
+  <si>
+    <t>Hội đạo tặc</t>
+  </si>
+  <si>
+    <t>Hội pháp sư</t>
+  </si>
+  <si>
     <t>Thương hội</t>
-  </si>
-  <si>
-    <t>Hội chiến binh</t>
-  </si>
-  <si>
-    <t>Hội đạo tặc</t>
-  </si>
-  <si>
-    <t>Hội pháp sư</t>
-  </si>
-  <si>
-    <t>Hoang dã</t>
-  </si>
-  <si>
-    <t>Nhà</t>
   </si>
 </sst>
 </file>
@@ -558,15 +558,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -626,7 +626,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -635,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -643,7 +643,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -660,7 +660,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -669,7 +669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -677,7 +677,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -694,7 +694,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -703,7 +703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -720,7 +720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -754,7 +754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -771,7 +771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>

--- a/data/Game/Faction.xlsx
+++ b/data/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
